--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6987.344004845254</v>
+        <v>7164.219644122537</v>
       </c>
       <c r="AB2" t="n">
-        <v>9560.392327291429</v>
+        <v>9802.401380153098</v>
       </c>
       <c r="AC2" t="n">
-        <v>8647.961901669278</v>
+        <v>8866.873950187663</v>
       </c>
       <c r="AD2" t="n">
-        <v>6987344.004845254</v>
+        <v>7164219.644122537</v>
       </c>
       <c r="AE2" t="n">
-        <v>9560392.327291429</v>
+        <v>9802401.380153099</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.115475201026106e-07</v>
+        <v>1.033851425398192e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.12916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>8647961.901669277</v>
+        <v>8866873.950187663</v>
       </c>
     </row>
     <row r="3">
@@ -3858,28 +3858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2334.191783733799</v>
+        <v>2427.922141575027</v>
       </c>
       <c r="AB3" t="n">
-        <v>3193.744175778493</v>
+        <v>3321.990186468416</v>
       </c>
       <c r="AC3" t="n">
-        <v>2888.937714090177</v>
+        <v>3004.944105514255</v>
       </c>
       <c r="AD3" t="n">
-        <v>2334191.783733799</v>
+        <v>2427922.141575027</v>
       </c>
       <c r="AE3" t="n">
-        <v>3193744.175778493</v>
+        <v>3321990.186468416</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.151465786300073e-06</v>
+        <v>1.946610043098266e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.59722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2888937.714090177</v>
+        <v>3004944.105514255</v>
       </c>
     </row>
     <row r="4">
@@ -3964,28 +3964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1793.037217903985</v>
+        <v>1865.938696844602</v>
       </c>
       <c r="AB4" t="n">
-        <v>2453.312624755461</v>
+        <v>2553.059644428277</v>
       </c>
       <c r="AC4" t="n">
-        <v>2219.171911094694</v>
+        <v>2309.399215205758</v>
       </c>
       <c r="AD4" t="n">
-        <v>1793037.217903985</v>
+        <v>1865938.696844602</v>
       </c>
       <c r="AE4" t="n">
-        <v>2453312.624755461</v>
+        <v>2553059.644428277</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.349430954424892e-06</v>
+        <v>2.281279982092862e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.01527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>2219171.911094694</v>
+        <v>2309399.215205758</v>
       </c>
     </row>
     <row r="5">
@@ -4070,28 +4070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1560.780502149366</v>
+        <v>1643.925694076869</v>
       </c>
       <c r="AB5" t="n">
-        <v>2135.52873981685</v>
+        <v>2249.291659519045</v>
       </c>
       <c r="AC5" t="n">
-        <v>1931.71687412214</v>
+        <v>2034.622420435219</v>
       </c>
       <c r="AD5" t="n">
-        <v>1560780.502149366</v>
+        <v>1643925.694076869</v>
       </c>
       <c r="AE5" t="n">
-        <v>2135528.73981685</v>
+        <v>2249291.659519046</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.455488933221313e-06</v>
+        <v>2.460576257442215e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.92083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1931716.87412214</v>
+        <v>2034622.420435219</v>
       </c>
     </row>
     <row r="6">
@@ -4176,28 +4176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1440.506712034344</v>
+        <v>1513.237509265817</v>
       </c>
       <c r="AB6" t="n">
-        <v>1970.964834076343</v>
+        <v>2070.478319504763</v>
       </c>
       <c r="AC6" t="n">
-        <v>1782.858716578614</v>
+        <v>1872.8747746258</v>
       </c>
       <c r="AD6" t="n">
-        <v>1440506.712034344</v>
+        <v>1513237.509265817</v>
       </c>
       <c r="AE6" t="n">
-        <v>1970964.834076343</v>
+        <v>2070478.319504763</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.521866347736267e-06</v>
+        <v>2.572790570074891e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.31388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1782858.716578614</v>
+        <v>1872874.774625801</v>
       </c>
     </row>
     <row r="7">
@@ -4282,28 +4282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1348.523880092235</v>
+        <v>1421.339928669729</v>
       </c>
       <c r="AB7" t="n">
-        <v>1845.109865417004</v>
+        <v>1944.739995498074</v>
       </c>
       <c r="AC7" t="n">
-        <v>1669.015169489565</v>
+        <v>1759.136739787463</v>
       </c>
       <c r="AD7" t="n">
-        <v>1348523.880092235</v>
+        <v>1421339.92866973</v>
       </c>
       <c r="AE7" t="n">
-        <v>1845109.865417004</v>
+        <v>1944739.995498074</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.566652866980424e-06</v>
+        <v>2.648504402994081e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.93333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1669015.169489565</v>
+        <v>1759136.739787463</v>
       </c>
     </row>
     <row r="8">
@@ -4388,28 +4388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1284.672316340382</v>
+        <v>1357.488364917876</v>
       </c>
       <c r="AB8" t="n">
-        <v>1757.745338959535</v>
+        <v>1857.375469040604</v>
       </c>
       <c r="AC8" t="n">
-        <v>1589.988590820313</v>
+        <v>1680.110161118212</v>
       </c>
       <c r="AD8" t="n">
-        <v>1284672.316340382</v>
+        <v>1357488.364917876</v>
       </c>
       <c r="AE8" t="n">
-        <v>1757745.338959535</v>
+        <v>1857375.469040604</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.599914516451653e-06</v>
+        <v>2.704734871741883e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.66527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1589988.590820313</v>
+        <v>1680110.161118212</v>
       </c>
     </row>
     <row r="9">
@@ -4494,28 +4494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1230.83723830461</v>
+        <v>1293.238892186075</v>
       </c>
       <c r="AB9" t="n">
-        <v>1684.08581015497</v>
+        <v>1769.466505962264</v>
       </c>
       <c r="AC9" t="n">
-        <v>1523.359024063059</v>
+        <v>1600.591106095064</v>
       </c>
       <c r="AD9" t="n">
-        <v>1230837.23830461</v>
+        <v>1293238.892186075</v>
       </c>
       <c r="AE9" t="n">
-        <v>1684085.81015497</v>
+        <v>1769466.505962264</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.625881944547613e-06</v>
+        <v>2.748634097343238e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.4625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1523359.024063059</v>
+        <v>1600591.106095064</v>
       </c>
     </row>
     <row r="10">
@@ -4600,28 +4600,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1183.787576318728</v>
+        <v>1246.189230200192</v>
       </c>
       <c r="AB10" t="n">
-        <v>1619.710386941294</v>
+        <v>1705.091082748587</v>
       </c>
       <c r="AC10" t="n">
-        <v>1465.127500889422</v>
+        <v>1542.359582921426</v>
       </c>
       <c r="AD10" t="n">
-        <v>1183787.576318728</v>
+        <v>1246189.230200192</v>
       </c>
       <c r="AE10" t="n">
-        <v>1619710.386941293</v>
+        <v>1705091.082748587</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.647181070963401e-06</v>
+        <v>2.784641327330866e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.30138888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1465127.500889422</v>
+        <v>1542359.582921427</v>
       </c>
     </row>
     <row r="11">
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1144.831206306765</v>
+        <v>1207.232860188229</v>
       </c>
       <c r="AB11" t="n">
-        <v>1566.408562857176</v>
+        <v>1651.78925866447</v>
       </c>
       <c r="AC11" t="n">
-        <v>1416.912728086312</v>
+        <v>1494.144810118317</v>
       </c>
       <c r="AD11" t="n">
-        <v>1144831.206306765</v>
+        <v>1207232.860188229</v>
       </c>
       <c r="AE11" t="n">
-        <v>1566408.562857176</v>
+        <v>1651789.25866447</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.660602438293897e-06</v>
+        <v>2.80733081472033e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.20138888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>1416912.728086312</v>
+        <v>1494144.810118317</v>
       </c>
     </row>
     <row r="12">
@@ -4812,28 +4812,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1135.889692962302</v>
+        <v>1198.291346843766</v>
       </c>
       <c r="AB12" t="n">
-        <v>1554.174389827554</v>
+        <v>1639.555085634848</v>
       </c>
       <c r="AC12" t="n">
-        <v>1405.846167359868</v>
+        <v>1483.078249391873</v>
       </c>
       <c r="AD12" t="n">
-        <v>1135889.692962302</v>
+        <v>1198291.346843767</v>
       </c>
       <c r="AE12" t="n">
-        <v>1554174.389827554</v>
+        <v>1639555.085634848</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.664395433409037e-06</v>
+        <v>2.813743061156483e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.17361111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>1405846.167359868</v>
+        <v>1483078.249391873</v>
       </c>
     </row>
     <row r="13">
@@ -4918,28 +4918,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1140.026094634281</v>
+        <v>1202.427748515745</v>
       </c>
       <c r="AB13" t="n">
-        <v>1559.833997080319</v>
+        <v>1645.214692887612</v>
       </c>
       <c r="AC13" t="n">
-        <v>1410.965629639737</v>
+        <v>1488.197711671742</v>
       </c>
       <c r="AD13" t="n">
-        <v>1140026.094634281</v>
+        <v>1202427.748515745</v>
       </c>
       <c r="AE13" t="n">
-        <v>1559833.997080319</v>
+        <v>1645214.692887612</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.664395433409037e-06</v>
+        <v>2.813743061156483e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.17361111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>1410965.629639737</v>
+        <v>1488197.711671742</v>
       </c>
     </row>
   </sheetData>
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4216.212708005183</v>
+        <v>4347.304838629346</v>
       </c>
       <c r="AB2" t="n">
-        <v>5768.808233270041</v>
+        <v>5948.174269766662</v>
       </c>
       <c r="AC2" t="n">
-        <v>5218.241272059737</v>
+        <v>5380.488865774928</v>
       </c>
       <c r="AD2" t="n">
-        <v>4216212.708005183</v>
+        <v>4347304.838629345</v>
       </c>
       <c r="AE2" t="n">
-        <v>5768808.233270042</v>
+        <v>5948174.269766662</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.039263315958624e-07</v>
+        <v>1.392232391736587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.07083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>5218241.272059737</v>
+        <v>5380488.865774928</v>
       </c>
     </row>
     <row r="3">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1828.571856525932</v>
+        <v>1909.211147930792</v>
       </c>
       <c r="AB3" t="n">
-        <v>2501.932684995623</v>
+        <v>2612.26692105021</v>
       </c>
       <c r="AC3" t="n">
-        <v>2263.151741024219</v>
+        <v>2362.955832444829</v>
       </c>
       <c r="AD3" t="n">
-        <v>1828571.856525932</v>
+        <v>1909211.147930792</v>
       </c>
       <c r="AE3" t="n">
-        <v>2501932.684995623</v>
+        <v>2612266.92105021</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.301343487394617e-06</v>
+        <v>2.253654949116687e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.10694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2263151.741024218</v>
+        <v>2362955.832444828</v>
       </c>
     </row>
     <row r="4">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1454.285787043107</v>
+        <v>1524.834510604107</v>
       </c>
       <c r="AB4" t="n">
-        <v>1989.817972393219</v>
+        <v>2086.345848359402</v>
       </c>
       <c r="AC4" t="n">
-        <v>1799.912537835074</v>
+        <v>1887.227928796769</v>
       </c>
       <c r="AD4" t="n">
-        <v>1454285.787043107</v>
+        <v>1524834.510604107</v>
       </c>
       <c r="AE4" t="n">
-        <v>1989817.972393219</v>
+        <v>2086345.848359402</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.481536474052296e-06</v>
+        <v>2.565711543021978e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.14861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1799912.537835074</v>
+        <v>1887227.928796769</v>
       </c>
     </row>
     <row r="5">
@@ -5533,28 +5533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1288.251896473299</v>
+        <v>1358.715279179728</v>
       </c>
       <c r="AB5" t="n">
-        <v>1762.643078417322</v>
+        <v>1859.054187261307</v>
       </c>
       <c r="AC5" t="n">
-        <v>1594.41889689827</v>
+        <v>1681.628664828026</v>
       </c>
       <c r="AD5" t="n">
-        <v>1288251.896473299</v>
+        <v>1358715.279179728</v>
       </c>
       <c r="AE5" t="n">
-        <v>1762643.078417322</v>
+        <v>1859054.187261307</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.575858598559038e-06</v>
+        <v>2.729057750049454e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.30138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1594418.89689827</v>
+        <v>1681628.664828026</v>
       </c>
     </row>
     <row r="6">
@@ -5639,28 +5639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1180.833010495729</v>
+        <v>1251.381644548178</v>
       </c>
       <c r="AB6" t="n">
-        <v>1615.667819636022</v>
+        <v>1712.195573132656</v>
       </c>
       <c r="AC6" t="n">
-        <v>1461.470750533986</v>
+        <v>1548.786030714454</v>
       </c>
       <c r="AD6" t="n">
-        <v>1180833.010495729</v>
+        <v>1251381.644548178</v>
       </c>
       <c r="AE6" t="n">
-        <v>1615667.819636022</v>
+        <v>1712195.573132656</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.635168350448877e-06</v>
+        <v>2.831769845028331e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.81805555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1461470.750533986</v>
+        <v>1548786.030714454</v>
       </c>
     </row>
     <row r="7">
@@ -5745,28 +5745,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1104.728205628055</v>
+        <v>1165.356953545787</v>
       </c>
       <c r="AB7" t="n">
-        <v>1511.537868109041</v>
+        <v>1594.492795761666</v>
       </c>
       <c r="AC7" t="n">
-        <v>1367.278815433435</v>
+        <v>1442.316641218866</v>
       </c>
       <c r="AD7" t="n">
-        <v>1104728.205628055</v>
+        <v>1165356.953545787</v>
       </c>
       <c r="AE7" t="n">
-        <v>1511537.868109041</v>
+        <v>1594492.795761666</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.676217339034212e-06</v>
+        <v>2.902858114326689e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.50555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1367278.815433435</v>
+        <v>1442316.641218866</v>
       </c>
     </row>
     <row r="8">
@@ -5851,28 +5851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1047.38063405133</v>
+        <v>1107.83878976847</v>
       </c>
       <c r="AB8" t="n">
-        <v>1433.072390681466</v>
+        <v>1515.793906559244</v>
       </c>
       <c r="AC8" t="n">
-        <v>1296.301973044559</v>
+        <v>1371.128663547338</v>
       </c>
       <c r="AD8" t="n">
-        <v>1047380.63405133</v>
+        <v>1107838.78976847</v>
       </c>
       <c r="AE8" t="n">
-        <v>1433072.390681466</v>
+        <v>1515793.906559244</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.70458943408584e-06</v>
+        <v>2.951992653400554e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.29722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1296301.973044559</v>
+        <v>1371128.663547338</v>
       </c>
     </row>
     <row r="9">
@@ -5957,28 +5957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1036.334579277067</v>
+        <v>1096.792734994207</v>
       </c>
       <c r="AB9" t="n">
-        <v>1417.958691221776</v>
+        <v>1500.680207099554</v>
       </c>
       <c r="AC9" t="n">
-        <v>1282.630703849091</v>
+        <v>1357.457394351871</v>
       </c>
       <c r="AD9" t="n">
-        <v>1036334.579277067</v>
+        <v>1096792.734994207</v>
       </c>
       <c r="AE9" t="n">
-        <v>1417958.691221776</v>
+        <v>1500680.207099554</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.711078796251903e-06</v>
+        <v>2.963230872444044e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.25</v>
       </c>
       <c r="AH9" t="n">
-        <v>1282630.703849091</v>
+        <v>1357457.394351871</v>
       </c>
     </row>
     <row r="10">
@@ -6063,28 +6063,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1040.757889840846</v>
+        <v>1101.216045557987</v>
       </c>
       <c r="AB10" t="n">
-        <v>1424.010859877828</v>
+        <v>1506.732375755606</v>
       </c>
       <c r="AC10" t="n">
-        <v>1288.105262022882</v>
+        <v>1362.931952525661</v>
       </c>
       <c r="AD10" t="n">
-        <v>1040757.889840846</v>
+        <v>1101216.045557987</v>
       </c>
       <c r="AE10" t="n">
-        <v>1424010.859877828</v>
+        <v>1506732.375755606</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.710927880852693e-06</v>
+        <v>2.9629695185128e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.25138888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1288105.262022882</v>
+        <v>1362931.952525662</v>
       </c>
     </row>
   </sheetData>
@@ -6360,28 +6360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1343.681234458648</v>
+        <v>1425.634184118515</v>
       </c>
       <c r="AB2" t="n">
-        <v>1838.483944018682</v>
+        <v>1950.615585252281</v>
       </c>
       <c r="AC2" t="n">
-        <v>1663.02161672996</v>
+        <v>1764.451571501972</v>
       </c>
       <c r="AD2" t="n">
-        <v>1343681.234458648</v>
+        <v>1425634.184118515</v>
       </c>
       <c r="AE2" t="n">
-        <v>1838483.944018682</v>
+        <v>1950615.585252281</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.414893443551489e-06</v>
+        <v>2.677282865722723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.52916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1663021.61672996</v>
+        <v>1764451.571501972</v>
       </c>
     </row>
     <row r="3">
@@ -6466,28 +6466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>854.3692405046218</v>
+        <v>909.0615236894649</v>
       </c>
       <c r="AB3" t="n">
-        <v>1168.985686969139</v>
+        <v>1243.818081675885</v>
       </c>
       <c r="AC3" t="n">
-        <v>1057.41933368652</v>
+        <v>1125.10982967038</v>
       </c>
       <c r="AD3" t="n">
-        <v>854369.2405046218</v>
+        <v>909061.5236894649</v>
       </c>
       <c r="AE3" t="n">
-        <v>1168985.686969139</v>
+        <v>1243818.081675885</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.772237395850497e-06</v>
+        <v>3.353454520217321e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.19722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1057419.33368652</v>
+        <v>1125109.82967038</v>
       </c>
     </row>
     <row r="4">
@@ -6572,28 +6572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>806.3867277246834</v>
+        <v>870.1089461591192</v>
       </c>
       <c r="AB4" t="n">
-        <v>1103.333896144563</v>
+        <v>1190.521446632429</v>
       </c>
       <c r="AC4" t="n">
-        <v>998.0332576353741</v>
+        <v>1076.899750673174</v>
       </c>
       <c r="AD4" t="n">
-        <v>806386.7277246834</v>
+        <v>870108.9461591193</v>
       </c>
       <c r="AE4" t="n">
-        <v>1103333.896144563</v>
+        <v>1190521.446632429</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.811137703570134e-06</v>
+        <v>3.427062273369183e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.91388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>998033.2576353741</v>
+        <v>1076899.750673174</v>
       </c>
     </row>
   </sheetData>
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2041.51351479918</v>
+        <v>2136.309230388312</v>
       </c>
       <c r="AB2" t="n">
-        <v>2793.288856168027</v>
+        <v>2922.992536328892</v>
       </c>
       <c r="AC2" t="n">
-        <v>2526.701288140881</v>
+        <v>2644.026231107453</v>
       </c>
       <c r="AD2" t="n">
-        <v>2041513.51479918</v>
+        <v>2136309.230388312</v>
       </c>
       <c r="AE2" t="n">
-        <v>2793288.856168027</v>
+        <v>2922992.536328892</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.167993517191291e-06</v>
+        <v>2.127830529587309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.15555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>2526701.288140881</v>
+        <v>2644026.231107453</v>
       </c>
     </row>
     <row r="3">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1172.97523797109</v>
+        <v>1239.366402077877</v>
       </c>
       <c r="AB3" t="n">
-        <v>1604.916468607353</v>
+        <v>1695.755788309702</v>
       </c>
       <c r="AC3" t="n">
-        <v>1451.745493357877</v>
+        <v>1533.915235881621</v>
       </c>
       <c r="AD3" t="n">
-        <v>1172975.23797109</v>
+        <v>1239366.402077876</v>
       </c>
       <c r="AE3" t="n">
-        <v>1604916.468607353</v>
+        <v>1695755.788309702</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582993696540914e-06</v>
+        <v>2.883870728789641e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.13611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1451745.493357877</v>
+        <v>1533915.235881621</v>
       </c>
     </row>
     <row r="4">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>962.1280871890128</v>
+        <v>1028.519161787248</v>
       </c>
       <c r="AB4" t="n">
-        <v>1316.426094987519</v>
+        <v>1407.265292220321</v>
       </c>
       <c r="AC4" t="n">
-        <v>1190.788236097538</v>
+        <v>1272.957867840055</v>
       </c>
       <c r="AD4" t="n">
-        <v>962128.0871890128</v>
+        <v>1028519.161787248</v>
       </c>
       <c r="AE4" t="n">
-        <v>1316426.09498752</v>
+        <v>1407265.292220321</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.727180482456253e-06</v>
+        <v>3.146547738993868e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.95555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1190788.236097538</v>
+        <v>1272957.867840055</v>
       </c>
     </row>
     <row r="5">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>886.4419488302078</v>
+        <v>952.8330234284432</v>
       </c>
       <c r="AB5" t="n">
-        <v>1212.868981448235</v>
+        <v>1303.708178681037</v>
       </c>
       <c r="AC5" t="n">
-        <v>1097.114468131122</v>
+        <v>1179.284099873639</v>
       </c>
       <c r="AD5" t="n">
-        <v>886441.9488302078</v>
+        <v>952833.0234284432</v>
       </c>
       <c r="AE5" t="n">
-        <v>1212868.981448235</v>
+        <v>1303708.178681036</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.780827632970005e-06</v>
+        <v>3.244281196421809e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.56527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1097114.468131122</v>
+        <v>1179284.099873638</v>
       </c>
     </row>
     <row r="6">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>889.7612675831224</v>
+        <v>956.152342181358</v>
       </c>
       <c r="AB6" t="n">
-        <v>1217.410619803982</v>
+        <v>1308.249817036783</v>
       </c>
       <c r="AC6" t="n">
-        <v>1101.222658896425</v>
+        <v>1183.392290638942</v>
       </c>
       <c r="AD6" t="n">
-        <v>889761.2675831224</v>
+        <v>956152.342181358</v>
       </c>
       <c r="AE6" t="n">
-        <v>1217410.619803982</v>
+        <v>1308249.817036783</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.782277555956863e-06</v>
+        <v>3.246922641217159e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.55416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1101222.658896425</v>
+        <v>1183392.290638942</v>
       </c>
     </row>
   </sheetData>
@@ -7590,28 +7590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>934.9862366038902</v>
+        <v>1005.322095485857</v>
       </c>
       <c r="AB2" t="n">
-        <v>1279.289417603016</v>
+        <v>1375.526042724418</v>
       </c>
       <c r="AC2" t="n">
-        <v>1157.195831080958</v>
+        <v>1244.247767769725</v>
       </c>
       <c r="AD2" t="n">
-        <v>934986.2366038902</v>
+        <v>1005322.095485857</v>
       </c>
       <c r="AE2" t="n">
-        <v>1279289.417603016</v>
+        <v>1375526.042724418</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.635638190728559e-06</v>
+        <v>3.205323850437985e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.85138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1157195.831080958</v>
+        <v>1244247.767769726</v>
       </c>
     </row>
     <row r="3">
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>756.3639254202038</v>
+        <v>817.811882989083</v>
       </c>
       <c r="AB3" t="n">
-        <v>1034.890491181288</v>
+        <v>1118.966297619591</v>
       </c>
       <c r="AC3" t="n">
-        <v>936.1219951808722</v>
+        <v>1012.173724653839</v>
       </c>
       <c r="AD3" t="n">
-        <v>756363.9254202038</v>
+        <v>817811.882989083</v>
       </c>
       <c r="AE3" t="n">
-        <v>1034890.491181288</v>
+        <v>1118966.297619591</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.80966085965231e-06</v>
+        <v>3.546352211343224e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.42222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>936121.9951808722</v>
+        <v>1012173.724653839</v>
       </c>
     </row>
   </sheetData>
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4755.938636341375</v>
+        <v>4898.398527201602</v>
       </c>
       <c r="AB2" t="n">
-        <v>6507.285059447123</v>
+        <v>6702.204967008913</v>
       </c>
       <c r="AC2" t="n">
-        <v>5886.238906405185</v>
+        <v>6062.55593156108</v>
       </c>
       <c r="AD2" t="n">
-        <v>4755938.636341375</v>
+        <v>4898398.527201601</v>
       </c>
       <c r="AE2" t="n">
-        <v>6507285.059447123</v>
+        <v>6702204.967008913</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.531828355712456e-07</v>
+        <v>1.295836914253203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.58055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>5886238.906405185</v>
+        <v>6062555.93156108</v>
       </c>
     </row>
     <row r="3">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1946.847994381498</v>
+        <v>2028.168394955606</v>
       </c>
       <c r="AB3" t="n">
-        <v>2663.763314784544</v>
+        <v>2775.029474452913</v>
       </c>
       <c r="AC3" t="n">
-        <v>2409.537482636801</v>
+        <v>2510.184556189455</v>
       </c>
       <c r="AD3" t="n">
-        <v>1946847.994381498</v>
+        <v>2028168.394955606</v>
       </c>
       <c r="AE3" t="n">
-        <v>2663763.314784545</v>
+        <v>2775029.474452913</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.261237262186718e-06</v>
+        <v>2.16993500752527e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.46944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2409537.482636801</v>
+        <v>2510184.556189455</v>
       </c>
     </row>
     <row r="4">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1535.108793076883</v>
+        <v>1606.253487160975</v>
       </c>
       <c r="AB4" t="n">
-        <v>2100.403574908006</v>
+        <v>2197.746884036247</v>
       </c>
       <c r="AC4" t="n">
-        <v>1899.944005653718</v>
+        <v>1987.997005980951</v>
       </c>
       <c r="AD4" t="n">
-        <v>1535108.793076883</v>
+        <v>1606253.487160975</v>
       </c>
       <c r="AE4" t="n">
-        <v>2100403.574908006</v>
+        <v>2197746.884036247</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.445943537391343e-06</v>
+        <v>2.487718682883234e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.36527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1899944.005653718</v>
+        <v>1987997.005980951</v>
       </c>
     </row>
     <row r="5">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1355.334920748782</v>
+        <v>1426.394273978302</v>
       </c>
       <c r="AB5" t="n">
-        <v>1854.429031725198</v>
+        <v>1951.655573731241</v>
       </c>
       <c r="AC5" t="n">
-        <v>1677.444927644837</v>
+        <v>1765.392304940131</v>
       </c>
       <c r="AD5" t="n">
-        <v>1355334.920748782</v>
+        <v>1426394.273978302</v>
       </c>
       <c r="AE5" t="n">
-        <v>1854429.031725198</v>
+        <v>1951655.573731241</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.544353844342471e-06</v>
+        <v>2.657031766596222e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.45138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1677444.927644837</v>
+        <v>1765392.304940131</v>
       </c>
     </row>
     <row r="6">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1244.238259946809</v>
+        <v>1315.38286452235</v>
       </c>
       <c r="AB6" t="n">
-        <v>1702.421679177176</v>
+        <v>1799.764865835868</v>
       </c>
       <c r="AC6" t="n">
-        <v>1539.944943480339</v>
+        <v>1627.997833026346</v>
       </c>
       <c r="AD6" t="n">
-        <v>1244238.259946809</v>
+        <v>1315382.86452235</v>
       </c>
       <c r="AE6" t="n">
-        <v>1702421.679177176</v>
+        <v>1799764.865835868</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.604626418356611e-06</v>
+        <v>2.760729597502505e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.94583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1539944.943480339</v>
+        <v>1627997.833026346</v>
       </c>
     </row>
     <row r="7">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1169.511013171018</v>
+        <v>1240.65561774656</v>
       </c>
       <c r="AB7" t="n">
-        <v>1600.176563405083</v>
+        <v>1697.519750063776</v>
       </c>
       <c r="AC7" t="n">
-        <v>1447.457958055614</v>
+        <v>1535.510847601621</v>
       </c>
       <c r="AD7" t="n">
-        <v>1169511.013171018</v>
+        <v>1240655.617746559</v>
       </c>
       <c r="AE7" t="n">
-        <v>1600176.563405083</v>
+        <v>1697519.750063776</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.647101383666824e-06</v>
+        <v>2.833806977098992e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.61111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1447457.958055614</v>
+        <v>1535510.847601621</v>
       </c>
     </row>
     <row r="8">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1106.287368919767</v>
+        <v>1167.256356513843</v>
       </c>
       <c r="AB8" t="n">
-        <v>1513.67118411019</v>
+        <v>1597.091642698304</v>
       </c>
       <c r="AC8" t="n">
-        <v>1369.208530749563</v>
+        <v>1444.667457851376</v>
       </c>
       <c r="AD8" t="n">
-        <v>1106287.368919767</v>
+        <v>1167256.356513842</v>
       </c>
       <c r="AE8" t="n">
-        <v>1513671.18411019</v>
+        <v>1597091.642698304</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.67791068949043e-06</v>
+        <v>2.886813808778134e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.38055555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>1369208.530749563</v>
+        <v>1444667.457851376</v>
       </c>
     </row>
     <row r="9">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1065.346154698207</v>
+        <v>1126.315142292283</v>
       </c>
       <c r="AB9" t="n">
-        <v>1457.653608613356</v>
+        <v>1541.07406720147</v>
       </c>
       <c r="AC9" t="n">
-        <v>1318.537194036986</v>
+        <v>1393.996121138798</v>
       </c>
       <c r="AD9" t="n">
-        <v>1065346.154698207</v>
+        <v>1126315.142292283</v>
       </c>
       <c r="AE9" t="n">
-        <v>1457653.608613356</v>
+        <v>1541074.06720147</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.695259618983334e-06</v>
+        <v>2.916662315937263e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.25277777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1318537.194036986</v>
+        <v>1393996.121138798</v>
       </c>
     </row>
     <row r="10">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1062.880938173823</v>
+        <v>1123.849925767899</v>
       </c>
       <c r="AB10" t="n">
-        <v>1454.280590607017</v>
+        <v>1537.701049195131</v>
       </c>
       <c r="AC10" t="n">
-        <v>1315.486092135111</v>
+        <v>1390.945019236924</v>
       </c>
       <c r="AD10" t="n">
-        <v>1062880.938173823</v>
+        <v>1123849.925767899</v>
       </c>
       <c r="AE10" t="n">
-        <v>1454280.590607017</v>
+        <v>1537701.049195131</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.698400373460497e-06</v>
+        <v>2.922065924991932e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.23055555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>1315486.092135111</v>
+        <v>1390945.019236924</v>
       </c>
     </row>
     <row r="11">
@@ -8947,28 +8947,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1068.026646344912</v>
+        <v>1128.995633938988</v>
       </c>
       <c r="AB11" t="n">
-        <v>1461.321175539324</v>
+        <v>1544.741634127437</v>
       </c>
       <c r="AC11" t="n">
-        <v>1321.854733523001</v>
+        <v>1397.313660624814</v>
       </c>
       <c r="AD11" t="n">
-        <v>1068026.646344912</v>
+        <v>1128995.633938988</v>
       </c>
       <c r="AE11" t="n">
-        <v>1461321.175539324</v>
+        <v>1544741.634127437</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.698101253986482e-06</v>
+        <v>2.921551295558155e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.23194444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>1321854.733523001</v>
+        <v>1397313.660624814</v>
       </c>
     </row>
   </sheetData>
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>758.7132113390528</v>
+        <v>818.950288373481</v>
       </c>
       <c r="AB2" t="n">
-        <v>1038.104887818637</v>
+        <v>1120.523914089426</v>
       </c>
       <c r="AC2" t="n">
-        <v>939.0296143145864</v>
+        <v>1013.582684393921</v>
       </c>
       <c r="AD2" t="n">
-        <v>758713.2113390528</v>
+        <v>818950.288373481</v>
       </c>
       <c r="AE2" t="n">
-        <v>1038104.887818637</v>
+        <v>1120523.914089426</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.75943794649822e-06</v>
+        <v>3.527075536442238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.12916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>939029.6143145864</v>
+        <v>1013582.684393921</v>
       </c>
     </row>
     <row r="3">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>727.7066071786533</v>
+        <v>788.0289355591023</v>
       </c>
       <c r="AB3" t="n">
-        <v>995.6802840915457</v>
+        <v>1078.215955014983</v>
       </c>
       <c r="AC3" t="n">
-        <v>900.6539552239032</v>
+        <v>975.3125375539499</v>
       </c>
       <c r="AD3" t="n">
-        <v>727706.6071786532</v>
+        <v>788028.9355591022</v>
       </c>
       <c r="AE3" t="n">
-        <v>995680.2840915456</v>
+        <v>1078215.955014983</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.793982353789588e-06</v>
+        <v>3.59632534097259e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.85694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>900653.9552239032</v>
+        <v>975312.53755395</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2947.809373635769</v>
+        <v>3055.680891477213</v>
       </c>
       <c r="AB2" t="n">
-        <v>4033.322833179916</v>
+        <v>4180.917402846084</v>
       </c>
       <c r="AC2" t="n">
-        <v>3648.388162785222</v>
+        <v>3781.896513872725</v>
       </c>
       <c r="AD2" t="n">
-        <v>2947809.373635769</v>
+        <v>3055680.891477213</v>
       </c>
       <c r="AE2" t="n">
-        <v>4033322.833179915</v>
+        <v>4180917.402846084</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.70721733135545e-07</v>
+        <v>1.719220320705678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.24722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>3648388.162785221</v>
+        <v>3781896.513872725</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1492.517648786355</v>
+        <v>1561.217500505111</v>
       </c>
       <c r="AB3" t="n">
-        <v>2042.128492301032</v>
+        <v>2136.126660246186</v>
       </c>
       <c r="AC3" t="n">
-        <v>1847.230615141161</v>
+        <v>1932.257729864887</v>
       </c>
       <c r="AD3" t="n">
-        <v>1492517.648786355</v>
+        <v>1561217.50050511</v>
       </c>
       <c r="AE3" t="n">
-        <v>2042128.492301032</v>
+        <v>2136126.660246186</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.429882597775825e-06</v>
+        <v>2.532428330804006e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.10277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1847230.615141161</v>
+        <v>1932257.729864887</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1210.277262455639</v>
+        <v>1278.977024665844</v>
       </c>
       <c r="AB4" t="n">
-        <v>1655.95474415629</v>
+        <v>1749.952789631896</v>
       </c>
       <c r="AC4" t="n">
-        <v>1497.912747521093</v>
+        <v>1582.939751463593</v>
       </c>
       <c r="AD4" t="n">
-        <v>1210277.262455639</v>
+        <v>1278977.024665844</v>
       </c>
       <c r="AE4" t="n">
-        <v>1655954.74415629</v>
+        <v>1749952.789631896</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.594390621747858e-06</v>
+        <v>2.823784265339744e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.54444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1497912.747521093</v>
+        <v>1582939.751463593</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1072.831301655375</v>
+        <v>1141.445723011008</v>
       </c>
       <c r="AB5" t="n">
-        <v>1467.895116901531</v>
+        <v>1561.77639525494</v>
       </c>
       <c r="AC5" t="n">
-        <v>1327.801267148184</v>
+        <v>1412.722648058746</v>
       </c>
       <c r="AD5" t="n">
-        <v>1072831.301655375</v>
+        <v>1141445.723011008</v>
       </c>
       <c r="AE5" t="n">
-        <v>1467895.116901531</v>
+        <v>1561776.39525494</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.680065405498889e-06</v>
+        <v>2.975520673590397e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.85416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1327801.267148184</v>
+        <v>1412722.648058746</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>983.6438187373932</v>
+        <v>1042.444077857262</v>
       </c>
       <c r="AB6" t="n">
-        <v>1345.864868099098</v>
+        <v>1426.317976711254</v>
       </c>
       <c r="AC6" t="n">
-        <v>1217.417414020925</v>
+        <v>1290.192190863784</v>
       </c>
       <c r="AD6" t="n">
-        <v>983643.8187373932</v>
+        <v>1042444.077857262</v>
       </c>
       <c r="AE6" t="n">
-        <v>1345864.868099098</v>
+        <v>1426317.976711254</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.733087367856605e-06</v>
+        <v>3.06942650882356e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.46111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1217417.414020925</v>
+        <v>1290192.190863784</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>961.0808928259264</v>
+        <v>1019.881151945796</v>
       </c>
       <c r="AB7" t="n">
-        <v>1314.99327746099</v>
+        <v>1395.446386073146</v>
       </c>
       <c r="AC7" t="n">
-        <v>1189.492164664769</v>
+        <v>1262.266941507628</v>
       </c>
       <c r="AD7" t="n">
-        <v>961080.8928259264</v>
+        <v>1019881.151945796</v>
       </c>
       <c r="AE7" t="n">
-        <v>1314993.27746099</v>
+        <v>1395446.386073146</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.746303986039613e-06</v>
+        <v>3.092834121711591e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.36666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1189492.164664769</v>
+        <v>1262266.941507627</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>965.7418985027622</v>
+        <v>1024.542157622631</v>
       </c>
       <c r="AB8" t="n">
-        <v>1321.370671057095</v>
+        <v>1401.823779669251</v>
       </c>
       <c r="AC8" t="n">
-        <v>1195.260908766789</v>
+        <v>1268.035685609648</v>
       </c>
       <c r="AD8" t="n">
-        <v>965741.8985027622</v>
+        <v>1024542.157622631</v>
       </c>
       <c r="AE8" t="n">
-        <v>1321370.671057095</v>
+        <v>1401823.779669251</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.746459475665296e-06</v>
+        <v>3.093109505392627e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.36527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1195260.908766789</v>
+        <v>1268035.685609648</v>
       </c>
     </row>
   </sheetData>
@@ -10580,28 +10580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3728.089003319212</v>
+        <v>3858.032154484375</v>
       </c>
       <c r="AB2" t="n">
-        <v>5100.935846020636</v>
+        <v>5278.729798132056</v>
       </c>
       <c r="AC2" t="n">
-        <v>4614.109688084657</v>
+        <v>4774.935234941938</v>
       </c>
       <c r="AD2" t="n">
-        <v>3728089.003319212</v>
+        <v>3858032.154484374</v>
       </c>
       <c r="AE2" t="n">
-        <v>5100935.846020636</v>
+        <v>5278729.798132056</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.577240541179892e-07</v>
+        <v>1.495795854599809e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.67083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4614109.688084657</v>
+        <v>4774935.234941938</v>
       </c>
     </row>
     <row r="3">
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1708.058773466998</v>
+        <v>1788.076307017603</v>
       </c>
       <c r="AB3" t="n">
-        <v>2337.041368092397</v>
+        <v>2446.524887620772</v>
       </c>
       <c r="AC3" t="n">
-        <v>2113.997419979819</v>
+        <v>2213.03198606549</v>
       </c>
       <c r="AD3" t="n">
-        <v>1708058.773466998</v>
+        <v>1788076.307017603</v>
       </c>
       <c r="AE3" t="n">
-        <v>2337041.368092397</v>
+        <v>2446524.887620772</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.341736366717075e-06</v>
+        <v>2.339871064202579e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.77083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2113997.419979819</v>
+        <v>2213031.98606549</v>
       </c>
     </row>
     <row r="4">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1365.721438802937</v>
+        <v>1445.5682906444</v>
       </c>
       <c r="AB4" t="n">
-        <v>1868.640323947731</v>
+        <v>1977.89030923171</v>
       </c>
       <c r="AC4" t="n">
-        <v>1690.299914083325</v>
+        <v>1789.123234105119</v>
       </c>
       <c r="AD4" t="n">
-        <v>1365721.438802938</v>
+        <v>1445568.2906444</v>
       </c>
       <c r="AE4" t="n">
-        <v>1868640.323947731</v>
+        <v>1977890.30923171</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.517242247772834e-06</v>
+        <v>2.645937995729929e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.94722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1690299.914083325</v>
+        <v>1789123.234105119</v>
       </c>
     </row>
     <row r="5">
@@ -10898,28 +10898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1219.725726994268</v>
+        <v>1279.738966665772</v>
       </c>
       <c r="AB5" t="n">
-        <v>1668.882550174878</v>
+        <v>1750.995312290707</v>
       </c>
       <c r="AC5" t="n">
-        <v>1509.606741877557</v>
+        <v>1583.882777223037</v>
       </c>
       <c r="AD5" t="n">
-        <v>1219725.726994268</v>
+        <v>1279738.966665772</v>
       </c>
       <c r="AE5" t="n">
-        <v>1668882.550174878</v>
+        <v>1750995.312290707</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.609108607387958e-06</v>
+        <v>2.806144905201276e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.15</v>
       </c>
       <c r="AH5" t="n">
-        <v>1509606.741877557</v>
+        <v>1583882.777223037</v>
       </c>
     </row>
     <row r="6">
@@ -11004,28 +11004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1116.199595909711</v>
+        <v>1186.129596911919</v>
       </c>
       <c r="AB6" t="n">
-        <v>1527.233530374425</v>
+        <v>1622.914842839555</v>
       </c>
       <c r="AC6" t="n">
-        <v>1381.476505721211</v>
+        <v>1468.026128014235</v>
       </c>
       <c r="AD6" t="n">
-        <v>1116199.595909711</v>
+        <v>1186129.596911919</v>
       </c>
       <c r="AE6" t="n">
-        <v>1527233.530374425</v>
+        <v>1622914.842839555</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.666544125754296e-06</v>
+        <v>2.906307434008404e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.69722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1381476.505721211</v>
+        <v>1468026.128014235</v>
       </c>
     </row>
     <row r="7">
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1045.58529799047</v>
+        <v>1105.513196807403</v>
       </c>
       <c r="AB7" t="n">
-        <v>1430.61593267836</v>
+        <v>1512.611927671991</v>
       </c>
       <c r="AC7" t="n">
-        <v>1294.079955945609</v>
+        <v>1368.25036825915</v>
       </c>
       <c r="AD7" t="n">
-        <v>1045585.29799047</v>
+        <v>1105513.196807403</v>
       </c>
       <c r="AE7" t="n">
-        <v>1430615.93267836</v>
+        <v>1512611.927671991</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.70478368838016e-06</v>
+        <v>2.972993892179727e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.4125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1294079.955945609</v>
+        <v>1368250.36825915</v>
       </c>
     </row>
     <row r="8">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1010.087293475798</v>
+        <v>1070.015192292732</v>
       </c>
       <c r="AB8" t="n">
-        <v>1382.045996839955</v>
+        <v>1464.041991833586</v>
       </c>
       <c r="AC8" t="n">
-        <v>1250.145466615288</v>
+        <v>1324.315878928829</v>
       </c>
       <c r="AD8" t="n">
-        <v>1010087.293475798</v>
+        <v>1070015.192292732</v>
       </c>
       <c r="AE8" t="n">
-        <v>1382045.996839955</v>
+        <v>1464041.991833586</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.722151457859636e-06</v>
+        <v>3.003281765612121e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.28611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1250145.466615288</v>
+        <v>1324315.878928829</v>
       </c>
     </row>
     <row r="9">
@@ -11322,28 +11322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1013.383850031581</v>
+        <v>1073.311748848514</v>
       </c>
       <c r="AB9" t="n">
-        <v>1386.556490953388</v>
+        <v>1468.552485947019</v>
       </c>
       <c r="AC9" t="n">
-        <v>1254.225485501053</v>
+        <v>1328.395897814594</v>
       </c>
       <c r="AD9" t="n">
-        <v>1013383.850031581</v>
+        <v>1073311.748848514</v>
       </c>
       <c r="AE9" t="n">
-        <v>1386556.490953387</v>
+        <v>1468552.485947019</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.722913202135052e-06</v>
+        <v>3.004610181113542e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.28055555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1254225.485501053</v>
+        <v>1328395.897814594</v>
       </c>
     </row>
   </sheetData>
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6121.116379314509</v>
+        <v>6286.344592295509</v>
       </c>
       <c r="AB2" t="n">
-        <v>8375.181474774456</v>
+        <v>8601.254005129371</v>
       </c>
       <c r="AC2" t="n">
-        <v>7575.865909462691</v>
+        <v>7780.362394815314</v>
       </c>
       <c r="AD2" t="n">
-        <v>6121116.379314509</v>
+        <v>6286344.592295509</v>
       </c>
       <c r="AE2" t="n">
-        <v>8375181.474774456</v>
+        <v>8601254.005129371</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.573163288478287e-07</v>
+        <v>1.11739419449533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.07222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>7575865.909462691</v>
+        <v>7780362.394815315</v>
       </c>
     </row>
     <row r="3">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2205.596880784489</v>
+        <v>2298.463116498541</v>
       </c>
       <c r="AB3" t="n">
-        <v>3017.794956356514</v>
+        <v>3144.858637029657</v>
       </c>
       <c r="AC3" t="n">
-        <v>2729.780841223557</v>
+        <v>2844.717742548247</v>
       </c>
       <c r="AD3" t="n">
-        <v>2205596.880784489</v>
+        <v>2298463.116498541</v>
       </c>
       <c r="AE3" t="n">
-        <v>3017794.956356514</v>
+        <v>3144858.637029657</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.186110404583129e-06</v>
+        <v>2.016309076688889e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.21944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2729780.841223557</v>
+        <v>2844717.742548247</v>
       </c>
     </row>
     <row r="4">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1694.443824072278</v>
+        <v>1777.057885808501</v>
       </c>
       <c r="AB4" t="n">
-        <v>2318.412793681366</v>
+        <v>2431.448997624042</v>
       </c>
       <c r="AC4" t="n">
-        <v>2097.146730565208</v>
+        <v>2199.394917850904</v>
       </c>
       <c r="AD4" t="n">
-        <v>1694443.824072278</v>
+        <v>1777057.885808501</v>
       </c>
       <c r="AE4" t="n">
-        <v>2318412.793681365</v>
+        <v>2431448.997624042</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.382422999440366e-06</v>
+        <v>2.3500274770583e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.77361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>2097146.730565208</v>
+        <v>2199394.917850904</v>
       </c>
     </row>
     <row r="5">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1492.821144621168</v>
+        <v>1565.183121888113</v>
       </c>
       <c r="AB5" t="n">
-        <v>2042.543748691514</v>
+        <v>2141.552598373279</v>
       </c>
       <c r="AC5" t="n">
-        <v>1847.606240044552</v>
+        <v>1937.165824072482</v>
       </c>
       <c r="AD5" t="n">
-        <v>1492821.144621168</v>
+        <v>1565183.121888113</v>
       </c>
       <c r="AE5" t="n">
-        <v>2042543.748691514</v>
+        <v>2141552.598373279</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.483887936108152e-06</v>
+        <v>2.522511144664962e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.76388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1847606.240044552</v>
+        <v>1937165.824072482</v>
       </c>
     </row>
     <row r="6">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1378.498934103212</v>
+        <v>1440.523575554859</v>
       </c>
       <c r="AB6" t="n">
-        <v>1886.123056720875</v>
+        <v>1970.987907489078</v>
       </c>
       <c r="AC6" t="n">
-        <v>1706.11411937777</v>
+        <v>1782.879587897222</v>
       </c>
       <c r="AD6" t="n">
-        <v>1378498.934103212</v>
+        <v>1440523.575554859</v>
       </c>
       <c r="AE6" t="n">
-        <v>1886123.056720875</v>
+        <v>1970987.907489078</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.548590214562972e-06</v>
+        <v>2.632500729805442e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.1875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1706114.11937777</v>
+        <v>1782879.587897222</v>
       </c>
     </row>
     <row r="7">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1290.470748462741</v>
+        <v>1362.747384875115</v>
       </c>
       <c r="AB7" t="n">
-        <v>1765.679009598117</v>
+        <v>1864.571092157684</v>
       </c>
       <c r="AC7" t="n">
-        <v>1597.165083068126</v>
+        <v>1686.619044064118</v>
       </c>
       <c r="AD7" t="n">
-        <v>1290470.748462741</v>
+        <v>1362747.384875115</v>
       </c>
       <c r="AE7" t="n">
-        <v>1765679.009598117</v>
+        <v>1864571.092157684</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.592264252519975e-06</v>
+        <v>2.706743699775266e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.82777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1597165.083068126</v>
+        <v>1686619.044064118</v>
       </c>
     </row>
     <row r="8">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1227.155283638135</v>
+        <v>1299.431920050509</v>
       </c>
       <c r="AB8" t="n">
-        <v>1679.047997343923</v>
+        <v>1777.94007990349</v>
       </c>
       <c r="AC8" t="n">
-        <v>1518.802013036083</v>
+        <v>1608.255974032075</v>
       </c>
       <c r="AD8" t="n">
-        <v>1227155.283638135</v>
+        <v>1299431.920050509</v>
       </c>
       <c r="AE8" t="n">
-        <v>1679047.997343923</v>
+        <v>1777940.07990349</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.624321290481682e-06</v>
+        <v>2.761238539685776e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.57361111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1518802.013036083</v>
+        <v>1608255.974032075</v>
       </c>
     </row>
     <row r="9">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1172.625228721371</v>
+        <v>1234.564529318447</v>
       </c>
       <c r="AB9" t="n">
-        <v>1604.437570510569</v>
+        <v>1689.185654156576</v>
       </c>
       <c r="AC9" t="n">
-        <v>1451.312300623313</v>
+        <v>1527.972146110827</v>
       </c>
       <c r="AD9" t="n">
-        <v>1172625.228721371</v>
+        <v>1234564.529318447</v>
       </c>
       <c r="AE9" t="n">
-        <v>1604437.570510569</v>
+        <v>1689185.654156576</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.651084505660721e-06</v>
+        <v>2.806734231721157e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.37083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1451312.300623313</v>
+        <v>1527972.146110827</v>
       </c>
     </row>
     <row r="10">
@@ -12467,28 +12467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1127.938100429037</v>
+        <v>1189.877401026113</v>
       </c>
       <c r="AB10" t="n">
-        <v>1543.294670124037</v>
+        <v>1628.042753770043</v>
       </c>
       <c r="AC10" t="n">
-        <v>1396.004792835071</v>
+        <v>1472.664638322585</v>
       </c>
       <c r="AD10" t="n">
-        <v>1127938.100429037</v>
+        <v>1189877.401026113</v>
       </c>
       <c r="AE10" t="n">
-        <v>1543294.670124037</v>
+        <v>1628042.753770043</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.668730581602944e-06</v>
+        <v>2.836731391304923e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.23888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1396004.792835071</v>
+        <v>1472664.638322585</v>
       </c>
     </row>
     <row r="11">
@@ -12573,28 +12573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1111.963180802948</v>
+        <v>1173.902481400023</v>
       </c>
       <c r="AB11" t="n">
-        <v>1521.437080327907</v>
+        <v>1606.185163973913</v>
       </c>
       <c r="AC11" t="n">
-        <v>1376.233260731765</v>
+        <v>1452.893106219278</v>
       </c>
       <c r="AD11" t="n">
-        <v>1111963.180802948</v>
+        <v>1173902.481400023</v>
       </c>
       <c r="AE11" t="n">
-        <v>1521437.080327907</v>
+        <v>1606185.163973913</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.676524265144093e-06</v>
+        <v>2.849980136787754e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.18194444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>1376233.260731765</v>
+        <v>1452893.106219278</v>
       </c>
     </row>
     <row r="12">
@@ -12679,28 +12679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1115.244255043556</v>
+        <v>1177.183555640631</v>
       </c>
       <c r="AB12" t="n">
-        <v>1525.926390854686</v>
+        <v>1610.674474500692</v>
       </c>
       <c r="AC12" t="n">
-        <v>1380.294117762654</v>
+        <v>1456.953963250168</v>
       </c>
       <c r="AD12" t="n">
-        <v>1115244.255043556</v>
+        <v>1177183.555640631</v>
       </c>
       <c r="AE12" t="n">
-        <v>1525926.390854686</v>
+        <v>1610674.474500692</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.675936062612685e-06</v>
+        <v>2.848980231468295e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.18611111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>1380294.117762654</v>
+        <v>1456953.963250168</v>
       </c>
     </row>
     <row r="13">
@@ -12785,28 +12785,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1119.492010015185</v>
+        <v>1181.431310612261</v>
       </c>
       <c r="AB13" t="n">
-        <v>1531.738356604593</v>
+        <v>1616.486440250599</v>
       </c>
       <c r="AC13" t="n">
-        <v>1385.551397658536</v>
+        <v>1462.211243146049</v>
       </c>
       <c r="AD13" t="n">
-        <v>1119492.010015185</v>
+        <v>1181431.310612261</v>
       </c>
       <c r="AE13" t="n">
-        <v>1531738.356604593</v>
+        <v>1616486.440250599</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.675936062612685e-06</v>
+        <v>2.848980231468295e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.18611111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>1385551.397658536</v>
+        <v>1462211.243146049</v>
       </c>
     </row>
   </sheetData>
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2312.301990838754</v>
+        <v>2408.298203104274</v>
       </c>
       <c r="AB2" t="n">
-        <v>3163.793595429986</v>
+        <v>3295.139848105667</v>
       </c>
       <c r="AC2" t="n">
-        <v>2861.845575094228</v>
+        <v>2980.656325760161</v>
       </c>
       <c r="AD2" t="n">
-        <v>2312301.990838754</v>
+        <v>2408298.203104274</v>
       </c>
       <c r="AE2" t="n">
-        <v>3163793.595429986</v>
+        <v>3295139.848105667</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.098649924524379e-06</v>
+        <v>1.981125798372386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.1125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2861845.575094228</v>
+        <v>2980656.325760161</v>
       </c>
     </row>
     <row r="3">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1277.024870866576</v>
+        <v>1344.196644048634</v>
       </c>
       <c r="AB3" t="n">
-        <v>1747.28176668079</v>
+        <v>1839.189150157967</v>
       </c>
       <c r="AC3" t="n">
-        <v>1580.523647194136</v>
+        <v>1663.659518985075</v>
       </c>
       <c r="AD3" t="n">
-        <v>1277024.870866576</v>
+        <v>1344196.644048634</v>
       </c>
       <c r="AE3" t="n">
-        <v>1747281.76668079</v>
+        <v>1839189.150157967</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.527387478331677e-06</v>
+        <v>2.754241064317011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.46666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1580523.647194136</v>
+        <v>1663659.518985074</v>
       </c>
     </row>
     <row r="4">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1052.275111722975</v>
+        <v>1109.924079398451</v>
       </c>
       <c r="AB4" t="n">
-        <v>1439.769230960927</v>
+        <v>1518.647091827469</v>
       </c>
       <c r="AC4" t="n">
-        <v>1302.359676286822</v>
+        <v>1373.709544818035</v>
       </c>
       <c r="AD4" t="n">
-        <v>1052275.111722976</v>
+        <v>1109924.079398451</v>
       </c>
       <c r="AE4" t="n">
-        <v>1439769.230960927</v>
+        <v>1518647.091827469</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.680269403826598e-06</v>
+        <v>3.029923353954408e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.15</v>
       </c>
       <c r="AH4" t="n">
-        <v>1302359.676286822</v>
+        <v>1373709.544818035</v>
       </c>
     </row>
     <row r="5">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>930.6822084621665</v>
+        <v>997.8538921356729</v>
       </c>
       <c r="AB5" t="n">
-        <v>1273.400456419189</v>
+        <v>1365.307717426818</v>
       </c>
       <c r="AC5" t="n">
-        <v>1151.868904087307</v>
+        <v>1235.004665097018</v>
       </c>
       <c r="AD5" t="n">
-        <v>930682.2084621665</v>
+        <v>997853.892135673</v>
       </c>
       <c r="AE5" t="n">
-        <v>1273400.456419189</v>
+        <v>1365307.717426818</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.757903513755341e-06</v>
+        <v>3.169916025487238e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.56944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1151868.904087307</v>
+        <v>1235004.665097018</v>
       </c>
     </row>
     <row r="6">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>912.07311167972</v>
+        <v>969.6367385006232</v>
       </c>
       <c r="AB6" t="n">
-        <v>1247.938669226037</v>
+        <v>1326.699762970382</v>
       </c>
       <c r="AC6" t="n">
-        <v>1128.837154128026</v>
+        <v>1200.0813996273</v>
       </c>
       <c r="AD6" t="n">
-        <v>912073.11167972</v>
+        <v>969636.7385006233</v>
       </c>
       <c r="AE6" t="n">
-        <v>1247938.669226037</v>
+        <v>1326699.762970382</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.771744021058211e-06</v>
+        <v>3.194873735371165e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.47083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1128837.154128026</v>
+        <v>1200081.3996273</v>
       </c>
     </row>
     <row r="7">
@@ -13612,28 +13612,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>917.6949912038473</v>
+        <v>975.2586180247505</v>
       </c>
       <c r="AB7" t="n">
-        <v>1255.630772810769</v>
+        <v>1334.391866555113</v>
       </c>
       <c r="AC7" t="n">
-        <v>1135.795134142566</v>
+        <v>1207.03937964184</v>
       </c>
       <c r="AD7" t="n">
-        <v>917694.9912038472</v>
+        <v>975258.6180247505</v>
       </c>
       <c r="AE7" t="n">
-        <v>1255630.772810769</v>
+        <v>1334391.866555113</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.771425848476536e-06</v>
+        <v>3.194299994914063e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.47222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1135795.134142566</v>
+        <v>1207039.37964184</v>
       </c>
     </row>
   </sheetData>
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1558.258108628126</v>
+        <v>1641.35300092282</v>
       </c>
       <c r="AB2" t="n">
-        <v>2132.077489720941</v>
+        <v>2245.771587246463</v>
       </c>
       <c r="AC2" t="n">
-        <v>1928.595006491524</v>
+        <v>2031.438298919879</v>
       </c>
       <c r="AD2" t="n">
-        <v>1558258.108628126</v>
+        <v>1641353.00092282</v>
       </c>
       <c r="AE2" t="n">
-        <v>2132077.489720941</v>
+        <v>2245771.587246463</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.325887154917905e-06</v>
+        <v>2.47368162087648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.35833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1928595.006491524</v>
+        <v>2031438.298919879</v>
       </c>
     </row>
     <row r="3">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>960.5696586719943</v>
+        <v>1025.331702168328</v>
       </c>
       <c r="AB3" t="n">
-        <v>1314.293784337521</v>
+        <v>1402.90406934892</v>
       </c>
       <c r="AC3" t="n">
-        <v>1188.859430183259</v>
+        <v>1269.012873958486</v>
       </c>
       <c r="AD3" t="n">
-        <v>960569.6586719942</v>
+        <v>1025331.702168328</v>
       </c>
       <c r="AE3" t="n">
-        <v>1314293.784337521</v>
+        <v>1402904.06934892</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.70355205006325e-06</v>
+        <v>3.178283597376604e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.51111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1188859.430183259</v>
+        <v>1269012.873958486</v>
       </c>
     </row>
     <row r="4">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>831.0436224116602</v>
+        <v>895.7203250534222</v>
       </c>
       <c r="AB4" t="n">
-        <v>1137.070547240706</v>
+        <v>1225.564065129907</v>
       </c>
       <c r="AC4" t="n">
-        <v>1028.550130100589</v>
+        <v>1108.597950843877</v>
       </c>
       <c r="AD4" t="n">
-        <v>831043.6224116602</v>
+        <v>895720.3250534222</v>
       </c>
       <c r="AE4" t="n">
-        <v>1137070.547240706</v>
+        <v>1225564.065129907</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.803644018763464e-06</v>
+        <v>3.365023217300288e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.76111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1028550.130100589</v>
+        <v>1108597.950843877</v>
       </c>
     </row>
     <row r="5">
@@ -14227,28 +14227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>837.2634722754241</v>
+        <v>901.9401749171861</v>
       </c>
       <c r="AB5" t="n">
-        <v>1145.580820224717</v>
+        <v>1234.074338113919</v>
       </c>
       <c r="AC5" t="n">
-        <v>1036.248194575249</v>
+        <v>1116.296015318537</v>
       </c>
       <c r="AD5" t="n">
-        <v>837263.4722754241</v>
+        <v>901940.1749171861</v>
       </c>
       <c r="AE5" t="n">
-        <v>1145580.820224717</v>
+        <v>1234074.338113919</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.802649727683661e-06</v>
+        <v>3.363168187963298e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.76666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1036248.194575249</v>
+        <v>1116296.015318537</v>
       </c>
     </row>
   </sheetData>
@@ -25793,28 +25793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1136.342907118607</v>
+        <v>1208.077488290549</v>
       </c>
       <c r="AB2" t="n">
-        <v>1554.794497430608</v>
+        <v>1652.944916096426</v>
       </c>
       <c r="AC2" t="n">
-        <v>1406.407092763613</v>
+        <v>1495.190173226943</v>
       </c>
       <c r="AD2" t="n">
-        <v>1136342.907118607</v>
+        <v>1208077.488290549</v>
       </c>
       <c r="AE2" t="n">
-        <v>1554794.497430608</v>
+        <v>1652944.916096426</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.517108807350573e-06</v>
+        <v>2.917456496403087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.69305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>1406407.092763613</v>
+        <v>1495190.173226943</v>
       </c>
     </row>
     <row r="3">
@@ -25899,28 +25899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>786.208784147329</v>
+        <v>840.0098095348362</v>
       </c>
       <c r="AB3" t="n">
-        <v>1075.725543553982</v>
+        <v>1149.338480022894</v>
       </c>
       <c r="AC3" t="n">
-        <v>973.0598074674724</v>
+        <v>1039.647228596196</v>
       </c>
       <c r="AD3" t="n">
-        <v>786208.7841473289</v>
+        <v>840009.8095348362</v>
       </c>
       <c r="AE3" t="n">
-        <v>1075725.543553982</v>
+        <v>1149338.480022894</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.811616483172978e-06</v>
+        <v>3.483805678416703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.14305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>973059.8074674724</v>
+        <v>1039647.228596196</v>
       </c>
     </row>
     <row r="4">
@@ -26005,28 +26005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>790.5051305209192</v>
+        <v>844.3061559084265</v>
       </c>
       <c r="AB4" t="n">
-        <v>1081.603994203753</v>
+        <v>1155.216930672665</v>
       </c>
       <c r="AC4" t="n">
-        <v>978.3772270376865</v>
+        <v>1044.964648166411</v>
       </c>
       <c r="AD4" t="n">
-        <v>790505.1305209192</v>
+        <v>844306.1559084265</v>
       </c>
       <c r="AE4" t="n">
-        <v>1081603.994203753</v>
+        <v>1155216.930672665</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.813845004584905e-06</v>
+        <v>3.488091207733454e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.12638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>978377.2270376865</v>
+        <v>1044964.648166411</v>
       </c>
     </row>
   </sheetData>
@@ -26302,28 +26302,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>699.1484175850936</v>
+        <v>766.279610731343</v>
       </c>
       <c r="AB2" t="n">
-        <v>956.6057091912317</v>
+        <v>1048.457569273151</v>
       </c>
       <c r="AC2" t="n">
-        <v>865.308602910565</v>
+        <v>948.3942503811613</v>
       </c>
       <c r="AD2" t="n">
-        <v>699148.4175850936</v>
+        <v>766279.610731343</v>
       </c>
       <c r="AE2" t="n">
-        <v>956605.7091912316</v>
+        <v>1048457.569273151</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.745338837062873e-06</v>
+        <v>3.59993470087392e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.64166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>865308.602910565</v>
+        <v>948394.2503811613</v>
       </c>
     </row>
   </sheetData>
@@ -26599,28 +26599,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3318.33140600004</v>
+        <v>3437.083525441697</v>
       </c>
       <c r="AB2" t="n">
-        <v>4540.287424139146</v>
+        <v>4702.769312932991</v>
       </c>
       <c r="AC2" t="n">
-        <v>4106.968764712556</v>
+        <v>4253.943610084673</v>
       </c>
       <c r="AD2" t="n">
-        <v>3318331.40600004</v>
+        <v>3437083.525441697</v>
       </c>
       <c r="AE2" t="n">
-        <v>4540287.424139146</v>
+        <v>4702769.31293299</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.124475278398996e-07</v>
+        <v>1.603134312389262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.42222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>4106968.764712556</v>
+        <v>4253943.610084673</v>
       </c>
     </row>
     <row r="3">
@@ -26705,28 +26705,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1597.706231842869</v>
+        <v>1676.817447403776</v>
       </c>
       <c r="AB3" t="n">
-        <v>2186.052152231723</v>
+        <v>2294.295607502665</v>
       </c>
       <c r="AC3" t="n">
-        <v>1977.418402966192</v>
+        <v>2075.331254786719</v>
       </c>
       <c r="AD3" t="n">
-        <v>1597706.231842869</v>
+        <v>1676817.447403776</v>
       </c>
       <c r="AE3" t="n">
-        <v>2186052.152231723</v>
+        <v>2294295.607502664</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.385135353392037e-06</v>
+        <v>2.433628175401035e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.42916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1977418.402966192</v>
+        <v>2075331.254786719</v>
       </c>
     </row>
     <row r="4">
@@ -26811,28 +26811,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1287.758003962832</v>
+        <v>1357.129585754144</v>
       </c>
       <c r="AB4" t="n">
-        <v>1761.967312895501</v>
+        <v>1856.884571560567</v>
       </c>
       <c r="AC4" t="n">
-        <v>1593.807625489409</v>
+        <v>1679.66611420469</v>
       </c>
       <c r="AD4" t="n">
-        <v>1287758.003962832</v>
+        <v>1357129.585754144</v>
       </c>
       <c r="AE4" t="n">
-        <v>1761967.312895501</v>
+        <v>1856884.571560567</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.555007540699836e-06</v>
+        <v>2.732086907420891e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.74305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1593807.625489409</v>
+        <v>1679666.11420469</v>
       </c>
     </row>
     <row r="5">
@@ -26917,28 +26917,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1140.917859947009</v>
+        <v>1210.20410088375</v>
       </c>
       <c r="AB5" t="n">
-        <v>1561.054149723102</v>
+        <v>1655.85464126597</v>
       </c>
       <c r="AC5" t="n">
-        <v>1412.069332626788</v>
+        <v>1497.82219831013</v>
       </c>
       <c r="AD5" t="n">
-        <v>1140917.859947009</v>
+        <v>1210204.10088375</v>
       </c>
       <c r="AE5" t="n">
-        <v>1561054.149723102</v>
+        <v>1655854.641265969</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.644867465869903e-06</v>
+        <v>2.889967251170525e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.99305555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1412069.332626788</v>
+        <v>1497822.19831013</v>
       </c>
     </row>
     <row r="6">
@@ -27023,28 +27023,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1050.419763578604</v>
+        <v>1119.706004515344</v>
       </c>
       <c r="AB6" t="n">
-        <v>1437.230661777614</v>
+        <v>1532.031153320482</v>
       </c>
       <c r="AC6" t="n">
-        <v>1300.063384583461</v>
+        <v>1385.816250266802</v>
       </c>
       <c r="AD6" t="n">
-        <v>1050419.763578604</v>
+        <v>1119706.004515344</v>
       </c>
       <c r="AE6" t="n">
-        <v>1437230.661777614</v>
+        <v>1532031.153320482</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.699183482282633e-06</v>
+        <v>2.985398349361657e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.57638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1300063.384583461</v>
+        <v>1385816.250266802</v>
       </c>
     </row>
     <row r="7">
@@ -27129,28 +27129,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>990.6176484573964</v>
+        <v>1049.9937529325</v>
       </c>
       <c r="AB7" t="n">
-        <v>1355.40676958566</v>
+        <v>1436.647775217351</v>
       </c>
       <c r="AC7" t="n">
-        <v>1226.048649821752</v>
+        <v>1299.536127898424</v>
       </c>
       <c r="AD7" t="n">
-        <v>990617.6484573964</v>
+        <v>1049993.7529325</v>
       </c>
       <c r="AE7" t="n">
-        <v>1355406.769585659</v>
+        <v>1436647.775217352</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.731803866077246e-06</v>
+        <v>3.042711076887209e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.34027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1226048.649821752</v>
+        <v>1299536.127898423</v>
       </c>
     </row>
     <row r="8">
@@ -27235,28 +27235,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>986.4151931282205</v>
+        <v>1045.791297603324</v>
       </c>
       <c r="AB8" t="n">
-        <v>1349.656784805037</v>
+        <v>1430.897790436729</v>
       </c>
       <c r="AC8" t="n">
-        <v>1220.847435518438</v>
+        <v>1294.334913595109</v>
       </c>
       <c r="AD8" t="n">
-        <v>986415.1931282205</v>
+        <v>1045791.297603324</v>
       </c>
       <c r="AE8" t="n">
-        <v>1349656.784805037</v>
+        <v>1430897.790436729</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.735804479184133e-06</v>
+        <v>3.04973999630072e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.3125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1220847.435518438</v>
+        <v>1294334.913595109</v>
       </c>
     </row>
   </sheetData>
@@ -27532,28 +27532,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5375.314518178765</v>
+        <v>5529.012527564407</v>
       </c>
       <c r="AB2" t="n">
-        <v>7354.742465912494</v>
+        <v>7565.038863031559</v>
       </c>
       <c r="AC2" t="n">
-        <v>6652.816167411411</v>
+        <v>6843.042171542271</v>
       </c>
       <c r="AD2" t="n">
-        <v>5375314.518178765</v>
+        <v>5529012.527564406</v>
       </c>
       <c r="AE2" t="n">
-        <v>7354742.465912495</v>
+        <v>7565038.86303156</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.051900640273583e-07</v>
+        <v>1.205796421416749e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.20277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>6652816.167411411</v>
+        <v>6843042.171542271</v>
       </c>
     </row>
     <row r="3">
@@ -27638,28 +27638,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2067.97158043672</v>
+        <v>2160.207400533889</v>
       </c>
       <c r="AB3" t="n">
-        <v>2829.489948820784</v>
+        <v>2955.691067034926</v>
       </c>
       <c r="AC3" t="n">
-        <v>2559.447399319413</v>
+        <v>2673.604059935579</v>
       </c>
       <c r="AD3" t="n">
-        <v>2067971.58043672</v>
+        <v>2160207.400533889</v>
       </c>
       <c r="AE3" t="n">
-        <v>2829489.948820784</v>
+        <v>2955691.067034926</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.223110352851488e-06</v>
+        <v>2.091382397028336e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.8375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2559447.399319413</v>
+        <v>2673604.059935579</v>
       </c>
     </row>
     <row r="4">
@@ -27744,28 +27744,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1615.485933011075</v>
+        <v>1697.463846335828</v>
       </c>
       <c r="AB4" t="n">
-        <v>2210.379123755118</v>
+        <v>2322.544921376334</v>
       </c>
       <c r="AC4" t="n">
-        <v>1999.423642470513</v>
+        <v>2100.884493792445</v>
       </c>
       <c r="AD4" t="n">
-        <v>1615485.933011075</v>
+        <v>1697463.846335828</v>
       </c>
       <c r="AE4" t="n">
-        <v>2210379.123755118</v>
+        <v>2322544.921376334</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.413197329740276e-06</v>
+        <v>2.4164099437601e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.57222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1999423.642470513</v>
+        <v>2100884.493792445</v>
       </c>
     </row>
     <row r="5">
@@ -27850,28 +27850,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1423.899027416791</v>
+        <v>1495.704374823699</v>
       </c>
       <c r="AB5" t="n">
-        <v>1948.241467303271</v>
+        <v>2046.488711453757</v>
       </c>
       <c r="AC5" t="n">
-        <v>1762.304036037919</v>
+        <v>1851.174701097556</v>
       </c>
       <c r="AD5" t="n">
-        <v>1423899.027416791</v>
+        <v>1495704.374823699</v>
       </c>
       <c r="AE5" t="n">
-        <v>1948241.467303271</v>
+        <v>2046488.711453757</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.51357867400994e-06</v>
+        <v>2.588050855723754e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.60555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>1762304.036037919</v>
+        <v>1851174.701097556</v>
       </c>
     </row>
     <row r="6">
@@ -27956,28 +27956,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1316.29639658184</v>
+        <v>1377.843926724884</v>
       </c>
       <c r="AB6" t="n">
-        <v>1801.014800701852</v>
+        <v>1885.22684672896</v>
       </c>
       <c r="AC6" t="n">
-        <v>1629.128475863015</v>
+        <v>1705.303442409645</v>
       </c>
       <c r="AD6" t="n">
-        <v>1316296.39658184</v>
+        <v>1377843.926724884</v>
       </c>
       <c r="AE6" t="n">
-        <v>1801014.800701852</v>
+        <v>1885226.84672896</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.576446753729788e-06</v>
+        <v>2.695548265875289e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.0625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1629128.475863015</v>
+        <v>1705303.442409645</v>
       </c>
     </row>
     <row r="7">
@@ -28062,28 +28062,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1231.41403095398</v>
+        <v>1303.134037506317</v>
       </c>
       <c r="AB7" t="n">
-        <v>1684.875003304134</v>
+        <v>1783.005480332422</v>
       </c>
       <c r="AC7" t="n">
-        <v>1524.072897725706</v>
+        <v>1612.837939753404</v>
       </c>
       <c r="AD7" t="n">
-        <v>1231414.03095398</v>
+        <v>1303134.037506317</v>
       </c>
       <c r="AE7" t="n">
-        <v>1684875.003304134</v>
+        <v>1783005.480332422</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.618556505240253e-06</v>
+        <v>2.767551248146601e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.72361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1524072.897725706</v>
+        <v>1612837.939753404</v>
       </c>
     </row>
     <row r="8">
@@ -28168,28 +28168,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1167.862683394155</v>
+        <v>1229.324872682628</v>
       </c>
       <c r="AB8" t="n">
-        <v>1597.921245885202</v>
+        <v>1682.016524790112</v>
       </c>
       <c r="AC8" t="n">
-        <v>1445.417884874472</v>
+        <v>1521.487228389162</v>
       </c>
       <c r="AD8" t="n">
-        <v>1167862.683394155</v>
+        <v>1229324.872682628</v>
       </c>
       <c r="AE8" t="n">
-        <v>1597921.245885202</v>
+        <v>1682016.524790112</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.651621556602343e-06</v>
+        <v>2.824088801127243e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.46805555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1445417.884874472</v>
+        <v>1521487.228389162</v>
       </c>
     </row>
     <row r="9">
@@ -28274,28 +28274,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1116.219981086623</v>
+        <v>1177.682170375095</v>
       </c>
       <c r="AB9" t="n">
-        <v>1527.261422272805</v>
+        <v>1611.356701177715</v>
       </c>
       <c r="AC9" t="n">
-        <v>1381.501735655957</v>
+        <v>1457.571079170648</v>
       </c>
       <c r="AD9" t="n">
-        <v>1116219.981086623</v>
+        <v>1177682.170375095</v>
       </c>
       <c r="AE9" t="n">
-        <v>1527261.422272805</v>
+        <v>1611356.701177715</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.67356607499512e-06</v>
+        <v>2.861611482029194e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.30555555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1381501.735655957</v>
+        <v>1457571.079170648</v>
       </c>
     </row>
     <row r="10">
@@ -28380,28 +28380,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1086.233114773245</v>
+        <v>1147.695304061717</v>
       </c>
       <c r="AB10" t="n">
-        <v>1486.232068855667</v>
+        <v>1570.327347760578</v>
       </c>
       <c r="AC10" t="n">
-        <v>1344.388166143892</v>
+        <v>1420.457509658582</v>
       </c>
       <c r="AD10" t="n">
-        <v>1086233.114773245</v>
+        <v>1147695.304061718</v>
       </c>
       <c r="AE10" t="n">
-        <v>1486232.068855667</v>
+        <v>1570327.347760578</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.686910714558296e-06</v>
+        <v>2.884429328523624e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.20833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1344388.166143892</v>
+        <v>1420457.509658582</v>
       </c>
     </row>
     <row r="11">
@@ -28486,28 +28486,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1086.926739104991</v>
+        <v>1148.388928393464</v>
       </c>
       <c r="AB11" t="n">
-        <v>1487.181116266909</v>
+        <v>1571.276395171819</v>
       </c>
       <c r="AC11" t="n">
-        <v>1345.2466378022</v>
+        <v>1421.315981316891</v>
       </c>
       <c r="AD11" t="n">
-        <v>1086926.739104991</v>
+        <v>1148388.928393464</v>
       </c>
       <c r="AE11" t="n">
-        <v>1487181.116266909</v>
+        <v>1571276.395171819</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.688393452287538e-06</v>
+        <v>2.886964644800783e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.19722222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1345246.6378022</v>
+        <v>1421315.981316891</v>
       </c>
     </row>
   </sheetData>
@@ -28783,28 +28783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>683.5853871569599</v>
+        <v>748.6035635449172</v>
       </c>
       <c r="AB2" t="n">
-        <v>935.3116843670139</v>
+        <v>1024.272421700518</v>
       </c>
       <c r="AC2" t="n">
-        <v>846.0468499292189</v>
+        <v>926.5172993487926</v>
       </c>
       <c r="AD2" t="n">
-        <v>683585.3871569599</v>
+        <v>748603.5635449172</v>
       </c>
       <c r="AE2" t="n">
-        <v>935311.6843670139</v>
+        <v>1024272.421700518</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.62382848422645e-06</v>
+        <v>3.480612361608098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.29583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>846046.8499292189</v>
+        <v>926517.2993487925</v>
       </c>
     </row>
   </sheetData>
@@ -29080,28 +29080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1791.190484423312</v>
+        <v>1875.509428853006</v>
       </c>
       <c r="AB2" t="n">
-        <v>2450.785842535072</v>
+        <v>2566.154742193071</v>
       </c>
       <c r="AC2" t="n">
-        <v>2216.886281423058</v>
+        <v>2321.244535218965</v>
       </c>
       <c r="AD2" t="n">
-        <v>1791190.484423312</v>
+        <v>1875509.428853006</v>
       </c>
       <c r="AE2" t="n">
-        <v>2450785.842535072</v>
+        <v>2566154.742193071</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.243364255846977e-06</v>
+        <v>2.290814757957878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.24166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2216886.281423058</v>
+        <v>2321244.535218965</v>
       </c>
     </row>
     <row r="3">
@@ -29186,28 +29186,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1063.34910942937</v>
+        <v>1128.996817254925</v>
       </c>
       <c r="AB3" t="n">
-        <v>1454.921163173114</v>
+        <v>1544.743253192507</v>
       </c>
       <c r="AC3" t="n">
-        <v>1316.065529354549</v>
+        <v>1397.315125168586</v>
       </c>
       <c r="AD3" t="n">
-        <v>1063349.10942937</v>
+        <v>1128996.817254925</v>
       </c>
       <c r="AE3" t="n">
-        <v>1454921.163173114</v>
+        <v>1544743.253192507</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.640345935117269e-06</v>
+        <v>3.022226719685696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.82638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1316065.529354549</v>
+        <v>1397315.125168586</v>
       </c>
     </row>
     <row r="4">
@@ -29292,28 +29292,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>879.2278340053007</v>
+        <v>944.7902009762848</v>
       </c>
       <c r="AB4" t="n">
-        <v>1202.998311280513</v>
+        <v>1292.703634177709</v>
       </c>
       <c r="AC4" t="n">
-        <v>1088.185840870635</v>
+        <v>1169.329813652733</v>
       </c>
       <c r="AD4" t="n">
-        <v>879227.8340053007</v>
+        <v>944790.2009762848</v>
       </c>
       <c r="AE4" t="n">
-        <v>1202998.311280513</v>
+        <v>1292703.634177709</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.77702782139832e-06</v>
+        <v>3.274053873929293e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.76388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1088185.840870635</v>
+        <v>1169329.813652733</v>
       </c>
     </row>
     <row r="5">
@@ -29398,28 +29398,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>859.0749476071932</v>
+        <v>924.6373145781774</v>
       </c>
       <c r="AB5" t="n">
-        <v>1175.424243028023</v>
+        <v>1265.129565925219</v>
       </c>
       <c r="AC5" t="n">
-        <v>1063.243402991714</v>
+        <v>1144.387375773813</v>
       </c>
       <c r="AD5" t="n">
-        <v>859074.9476071931</v>
+        <v>924637.3145781774</v>
       </c>
       <c r="AE5" t="n">
-        <v>1175424.243028023</v>
+        <v>1265129.565925219</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.794990793311003e-06</v>
+        <v>3.307149437808379e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.63611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1063243.402991714</v>
+        <v>1144387.375773813</v>
       </c>
     </row>
     <row r="6">
@@ -29504,28 +29504,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>865.1763740528968</v>
+        <v>930.7387410238809</v>
       </c>
       <c r="AB6" t="n">
-        <v>1183.772483866972</v>
+        <v>1273.477806764168</v>
       </c>
       <c r="AC6" t="n">
-        <v>1070.794899441824</v>
+        <v>1151.938872223922</v>
       </c>
       <c r="AD6" t="n">
-        <v>865176.3740528967</v>
+        <v>930738.7410238809</v>
       </c>
       <c r="AE6" t="n">
-        <v>1183772.483866972</v>
+        <v>1273477.806764168</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.794664193821681e-06</v>
+        <v>3.306547700283305e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.6375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1070794.899441824</v>
+        <v>1151938.872223922</v>
       </c>
     </row>
   </sheetData>
@@ -29801,28 +29801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2612.355580906944</v>
+        <v>2719.036395356278</v>
       </c>
       <c r="AB2" t="n">
-        <v>3574.340154791449</v>
+        <v>3720.305551546407</v>
       </c>
       <c r="AC2" t="n">
-        <v>3233.210147035933</v>
+        <v>3365.244811188313</v>
       </c>
       <c r="AD2" t="n">
-        <v>2612355.580906944</v>
+        <v>2719036.395356278</v>
       </c>
       <c r="AE2" t="n">
-        <v>3574340.154791449</v>
+        <v>3720305.551546406</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.033110044497118e-06</v>
+        <v>1.845575699899409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.1375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3233210.147035933</v>
+        <v>3365244.811188313</v>
       </c>
     </row>
     <row r="3">
@@ -29907,28 +29907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1377.836714374415</v>
+        <v>1455.461487447062</v>
       </c>
       <c r="AB3" t="n">
-        <v>1885.216978472861</v>
+        <v>1991.426617554152</v>
       </c>
       <c r="AC3" t="n">
-        <v>1705.294515966058</v>
+        <v>1801.367656159595</v>
       </c>
       <c r="AD3" t="n">
-        <v>1377836.714374415</v>
+        <v>1455461.487447062</v>
       </c>
       <c r="AE3" t="n">
-        <v>1885216.978472861</v>
+        <v>1991426.617554152</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.478050148884097e-06</v>
+        <v>2.640428725422971e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.77361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1705294.515966058</v>
+        <v>1801367.656159595</v>
       </c>
     </row>
     <row r="4">
@@ -30013,28 +30013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1131.452823233473</v>
+        <v>1199.278580719197</v>
       </c>
       <c r="AB4" t="n">
-        <v>1548.103668923692</v>
+        <v>1640.905862576897</v>
       </c>
       <c r="AC4" t="n">
-        <v>1400.35482753876</v>
+        <v>1484.3001100784</v>
       </c>
       <c r="AD4" t="n">
-        <v>1131452.823233473</v>
+        <v>1199278.580719197</v>
       </c>
       <c r="AE4" t="n">
-        <v>1548103.668923692</v>
+        <v>1640905.862576897</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.636216136521306e-06</v>
+        <v>2.922980719655022e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.34583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1400354.82753876</v>
+        <v>1484300.1100784</v>
       </c>
     </row>
     <row r="5">
@@ -30119,28 +30119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>998.4420216687323</v>
+        <v>1066.353030500477</v>
       </c>
       <c r="AB5" t="n">
-        <v>1366.112422200393</v>
+        <v>1459.031260506248</v>
       </c>
       <c r="AC5" t="n">
-        <v>1235.732569976414</v>
+        <v>1319.783364766766</v>
       </c>
       <c r="AD5" t="n">
-        <v>998442.0216687323</v>
+        <v>1066353.030500477</v>
       </c>
       <c r="AE5" t="n">
-        <v>1366112.422200393</v>
+        <v>1459031.260506248</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.719229696633082e-06</v>
+        <v>3.071278386607828e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.70138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1235732.569976414</v>
+        <v>1319783.364766766</v>
       </c>
     </row>
     <row r="6">
@@ -30225,28 +30225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>938.6026274539956</v>
+        <v>996.7999615533892</v>
       </c>
       <c r="AB6" t="n">
-        <v>1284.237523108035</v>
+        <v>1363.865683108002</v>
       </c>
       <c r="AC6" t="n">
-        <v>1161.671696341287</v>
+        <v>1233.700256509682</v>
       </c>
       <c r="AD6" t="n">
-        <v>938602.6274539956</v>
+        <v>996799.9615533892</v>
       </c>
       <c r="AE6" t="n">
-        <v>1284237.523108035</v>
+        <v>1363865.683108002</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.756491465092345e-06</v>
+        <v>3.137843816660508e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.43194444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>1161671.696341287</v>
+        <v>1233700.256509682</v>
       </c>
     </row>
     <row r="7">
@@ -30331,28 +30331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>939.3931156504639</v>
+        <v>997.5904497498576</v>
       </c>
       <c r="AB7" t="n">
-        <v>1285.319103932321</v>
+        <v>1364.947263932288</v>
       </c>
       <c r="AC7" t="n">
-        <v>1162.650052609711</v>
+        <v>1234.678612778106</v>
       </c>
       <c r="AD7" t="n">
-        <v>939393.1156504638</v>
+        <v>997590.4497498577</v>
       </c>
       <c r="AE7" t="n">
-        <v>1285319.103932321</v>
+        <v>1364947.263932287</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.759950363430335e-06</v>
+        <v>3.144022886116875e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.40833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1162650.052609711</v>
+        <v>1234678.612778106</v>
       </c>
     </row>
   </sheetData>
